--- a/GPS-INS-solf-master/sources/GNSS_INS_STD.xlsx
+++ b/GPS-INS-solf-master/sources/GNSS_INS_STD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="0" windowWidth="16560" windowHeight="8280" activeTab="1"/>
+    <workbookView xWindow="12540" yWindow="0" windowWidth="16560" windowHeight="8280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,24 +359,24 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>0.44212521111475528</v>
+        <v>1.0668312733176073E-4</v>
       </c>
       <c r="C2">
-        <v>0.13885901546189389</v>
+        <v>1.7786143187054204E-4</v>
       </c>
       <c r="D2">
-        <v>97.460646758675139</v>
+        <v>13.109432121180678</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>3.0976236819158193E-4</v>
+        <v>9.3895775403045911E-5</v>
       </c>
       <c r="C3">
-        <v>2.4036308362421137E-4</v>
+        <v>1.5458067833148782E-4</v>
       </c>
       <c r="D3">
-        <v>31.924176125264935</v>
+        <v>11.416106186717625</v>
       </c>
     </row>
   </sheetData>
@@ -397,24 +397,24 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>5.4311838634211895</v>
+        <v>2.5278435016209095</v>
       </c>
       <c r="C2">
-        <v>5.5882070760676639</v>
+        <v>3.1312351025160527</v>
       </c>
       <c r="D2">
-        <v>5.5882070760676639</v>
+        <v>3.1312351025160527</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>3.4499766215312828</v>
+        <v>1.9143013189114566</v>
       </c>
       <c r="C3">
-        <v>2.6962217610050301</v>
+        <v>3.0628628742896433</v>
       </c>
       <c r="D3">
-        <v>1.7888751373900063</v>
+        <v>0.37283770479757894</v>
       </c>
     </row>
   </sheetData>
